--- a/spliced/falling/2023-03-25_18-01-37/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-37/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0039706239476799</v>
+        <v>-0.0397062413394451</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0705549344420433</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0328340083360672</v>
+        <v>0.0332921557128429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0146607663482427</v>
+        <v>-0.0200058370828628</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2353358417749405</v>
+        <v>-0.0035124751739203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07696902006864539</v>
+        <v>0.0421497002243995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0704022198915481</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2420553565025329</v>
+        <v>0.0705549344420433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08109235763549801</v>
+        <v>0.0328340083360672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6050620079040527</v>
+        <v>-0.0146607663482427</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2802344262599945</v>
+        <v>0.2353358417749405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.07696902006864539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1878410577774047</v>
+        <v>0.0704022198915481</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7900014519691467</v>
+        <v>0.2420553565025329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.304669052362442</v>
+        <v>0.08109235763549801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3132211565971374</v>
+        <v>0.6050620079040527</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3736968040466308</v>
+        <v>0.2802344262599945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0494800843298435</v>
+        <v>0.07590000331401819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6346889734268188</v>
+        <v>0.1878410577774047</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.973566472530365</v>
+        <v>0.7900014519691467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2535090744495392</v>
+        <v>0.304669052362442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.739883422851562</v>
+        <v>0.3132211565971374</v>
       </c>
       <c r="B9" t="n">
-        <v>3.34677791595459</v>
+        <v>-0.3736968040466308</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.103209018707275</v>
+        <v>0.0494800843298435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.001944541931152</v>
+        <v>0.6346889734268188</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3590360581874847</v>
+        <v>-0.973566472530365</v>
       </c>
       <c r="C10" t="n">
-        <v>1.426217675209045</v>
+        <v>0.2535090744495392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.064446285367012</v>
+        <v>-2.739883422851562</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0032070425804704</v>
+        <v>3.34677791595459</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.773189067840576</v>
+        <v>-2.103209018707275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5893322229385376</v>
+        <v>-3.001944541931152</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0039706239476799</v>
+        <v>0.3590360581874847</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3778201639652252</v>
+        <v>1.426217675209045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3320052623748779</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.7985535860061646</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4050036668777466</v>
+        <v>-1.773189067840576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0734565481543541</v>
+        <v>-0.5893322229385376</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.579086661338806</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.274570345878601</v>
+        <v>-0.3778201639652252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2518292069435119</v>
+        <v>0.3320052623748779</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9622654914855956</v>
+        <v>-0.7985535860061646</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.384845107793808</v>
+        <v>0.4050036668777466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0522289797663688</v>
+        <v>0.0734565481543541</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-1.579086661338806</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2014328092336654</v>
+        <v>-1.274570345878601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0580321997404098</v>
+        <v>-0.2518292069435119</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2347249686717987</v>
+        <v>-0.9622654914855956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4702135324478149</v>
+        <v>-0.384845107793808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.08491026610136029</v>
+        <v>-0.0522289797663688</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1505782902240753</v>
+        <v>-0.2220495194196701</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0226020142436027</v>
+        <v>-0.2014328092336654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0704022198915481</v>
+        <v>0.0580321997404098</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0319177098572254</v>
+        <v>-0.2347249686717987</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1357648074626922</v>
+        <v>0.4702135324478149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0236710291355848</v>
+        <v>0.08491026610136029</v>
       </c>
       <c r="B20" t="n">
-        <v>0.039248090237379</v>
+        <v>0.1505782902240753</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0468839071691036</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0351247526705265</v>
+        <v>0.0704022198915481</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0268780700862407</v>
+        <v>0.0319177098572254</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.058184914290905</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0001527163112768</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0290160998702049</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0039706239476799</v>
+        <v>0.1357648074626922</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-37/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-37/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0397062413394451</v>
+        <v>-0.1018617823719978</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0024434609804302</v>
+        <v>0.0229074470698833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0332921557128429</v>
+        <v>0.0226020142436027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0200058370828628</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0035124751739203</v>
+        <v>-0.0256563406437635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0421497002243995</v>
+        <v>-0.0074830991216003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0039706239476799</v>
+        <v>-0.0534507073462009</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0705549344420433</v>
+        <v>-0.009010262787342</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0328340083360672</v>
+        <v>0.001527163083665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0146607663482427</v>
+        <v>-0.0387899428606033</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2353358417749405</v>
+        <v>0.0113010071218013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07696902006864539</v>
+        <v>0.0397062413394451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0704022198915481</v>
+        <v>-0.011148290708661</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2420553565025329</v>
+        <v>-0.08338310569524759</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08109235763549801</v>
+        <v>0.0064140851609408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6050620079040527</v>
+        <v>-0.0229074470698833</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2802344262599945</v>
+        <v>-0.0862847194075584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.0215329993516206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1878410577774047</v>
+        <v>-0.0293215326964855</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7900014519691467</v>
+        <v>-0.0226020142436027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.304669052362442</v>
+        <v>-0.0091629782691597</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3132211565971374</v>
+        <v>-0.0369573459029197</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3736968040466308</v>
+        <v>-0.0378736443817615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0494800843298435</v>
+        <v>-0.0192422550171613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6346889734268188</v>
+        <v>0.0308486949652433</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.973566472530365</v>
+        <v>-0.0488692186772823</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2535090744495392</v>
+        <v>-0.0198531206697225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.739883422851562</v>
+        <v>-0.0397062413394451</v>
       </c>
       <c r="B11" t="n">
-        <v>3.34677791595459</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.103209018707275</v>
+        <v>0.0332921557128429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.001944541931152</v>
+        <v>-0.0200058370828628</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3590360581874847</v>
+        <v>-0.0035124751739203</v>
       </c>
       <c r="C12" t="n">
-        <v>1.426217675209045</v>
+        <v>0.0421497002243995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.064446285367012</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0032070425804704</v>
+        <v>0.0705549344420433</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.773189067840576</v>
+        <v>0.0328340083360672</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.5893322229385376</v>
+        <v>-0.0146607663482427</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0039706239476799</v>
+        <v>0.2353358417749405</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3778201639652252</v>
+        <v>0.07696902006864539</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3320052623748779</v>
+        <v>0.0704022198915481</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7985535860061646</v>
+        <v>0.2420553565025329</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4050036668777466</v>
+        <v>0.08109235763549801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0734565481543541</v>
+        <v>0.6050620079040527</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.579086661338806</v>
+        <v>0.2802344262599945</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.274570345878601</v>
+        <v>0.07590000331401819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.2518292069435119</v>
+        <v>0.1878410577774047</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9622654914855956</v>
+        <v>0.7900014519691467</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.384845107793808</v>
+        <v>0.304669052362442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0522289797663688</v>
+        <v>0.3132211565971374</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-0.3736968040466308</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2014328092336654</v>
+        <v>0.0494800843298435</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0580321997404098</v>
+        <v>0.6346889734268188</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2347249686717987</v>
+        <v>-0.973566472530365</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4702135324478149</v>
+        <v>0.2535090744495392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.08491026610136029</v>
+        <v>-2.739883422851562</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1505782902240753</v>
+        <v>3.34677791595459</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0226020142436027</v>
+        <v>-2.103209018707275</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-3.001944541931152</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3590360581874847</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.426217675209045</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.064446285367012</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.0032070425804704</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.773189067840576</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.5893322229385376</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.0039706239476799</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3778201639652252</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3320052623748779</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.7985535860061646</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4050036668777466</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0734565481543541</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.579086661338806</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.274570345878601</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.2518292069435119</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.9622654914855956</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.384845107793808</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0522289797663688</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2220495194196701</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2014328092336654</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0580321997404098</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2347249686717987</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4702135324478149</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.08491026610136029</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1505782902240753</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0226020142436027</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.0704022198915481</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>0.0319177098572254</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>0.1357648074626922</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0236710291355848</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.039248090237379</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0468839071691036</v>
       </c>
     </row>
   </sheetData>
